--- a/data/trans_camb/P38B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Clase-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>-3.495910522774781</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-3.797613240360653</v>
+        <v>-3.797613240360675</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1426920198716597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.325670441336568</v>
+        <v>-1.325670441336579</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-1.824669477444163</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.555509397668043</v>
+        <v>-2.555509397668054</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.286133707567627</v>
+        <v>-8.531668586127472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.462334921894652</v>
+        <v>-8.4607025885119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.50668609761511</v>
+        <v>-4.744175712439128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.529024456582215</v>
+        <v>-5.423612017017914</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.212855882279794</v>
+        <v>-5.160140758669705</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.663710110927942</v>
+        <v>-5.535678181142104</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.135616147838861</v>
+        <v>0.9236981404253676</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4926308202609138</v>
+        <v>0.7325535525278746</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.141434066273583</v>
+        <v>4.963205795149582</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.900756490009488</v>
+        <v>3.65887025726803</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.428858997353909</v>
+        <v>1.423792395436712</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6235005908756541</v>
+        <v>0.7657676435314904</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.03922223935339447</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.04260718188142295</v>
+        <v>-0.0426071818814232</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.001573276604527347</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.01461641858139047</v>
+        <v>-0.0146164185813906</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.02032218713334167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.02846188903930546</v>
+        <v>-0.02846188903930558</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09082804739144354</v>
+        <v>-0.0933960909381087</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09265345578311993</v>
+        <v>-0.09246497230006165</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04868816111097033</v>
+        <v>-0.05161395786521344</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0594584194971856</v>
+        <v>-0.05817909532544688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05815118223239354</v>
+        <v>-0.05721819721146841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0620066337512163</v>
+        <v>-0.06107131191220175</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.012149369121824</v>
+        <v>0.01047708836992451</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.005570521494229859</v>
+        <v>0.009497066528821011</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05813395457189675</v>
+        <v>0.05683903524839058</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04399019765248054</v>
+        <v>0.0415781702945892</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01634249768511833</v>
+        <v>0.01599426777658849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007100201726498648</v>
+        <v>0.008720009041208324</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-3.135846313982982</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-4.508672226919663</v>
+        <v>-4.508672226919675</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-2.583230244662171</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.892128737616011</v>
+        <v>-8.066020467849036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.792896735821303</v>
+        <v>-9.237589436649412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.280476632595222</v>
+        <v>-7.287003790511632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.167862325421048</v>
+        <v>-7.398557870874494</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.323755327228356</v>
+        <v>-5.902250722470677</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.203626452090603</v>
+        <v>-7.143777976411521</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.802989605435631</v>
+        <v>1.866012048926734</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5494608585122138</v>
+        <v>0.03623457626421719</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.39256769344008</v>
+        <v>2.184698613568109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.483217271098051</v>
+        <v>1.403192991829233</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2188128194766617</v>
+        <v>0.5077345250725925</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.2675324166517052</v>
+        <v>-0.6686028592131458</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.03471694259395178</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.04991549304535342</v>
+        <v>-0.04991549304535355</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.02836971064632447</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08724719628815457</v>
+        <v>-0.08667277087005813</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09573448663747949</v>
+        <v>-0.09964323870906942</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07767822584096026</v>
+        <v>-0.07880996910823444</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07648553842609271</v>
+        <v>-0.07823657513699724</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06861261592487029</v>
+        <v>-0.06454108944119366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07827064045191839</v>
+        <v>-0.07819274624469652</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01954169705918374</v>
+        <v>0.02091012788577619</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.006206757987976467</v>
+        <v>0.000284924796955535</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.026946958937512</v>
+        <v>0.02378025104037212</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01684231645322973</v>
+        <v>0.01592617947543817</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.002340262282854222</v>
+        <v>0.005680668413169427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.002972176060322518</v>
+        <v>-0.007970651992109076</v>
       </c>
     </row>
     <row r="16">
@@ -932,13 +932,13 @@
         <v>1.939278211999396</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.94486472617893</v>
+        <v>1.944864726178919</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-2.383184841280128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5279731675852828</v>
+        <v>0.527973167585305</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5466816534659524</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.448127408219812</v>
+        <v>-2.085475751390319</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.85590603250016</v>
+        <v>-2.462913423694758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.58009099361184</v>
+        <v>-8.063554097870608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.641791489363832</v>
+        <v>-4.973303922968029</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.878247816025241</v>
+        <v>-3.36932927178005</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.003635599835655</v>
+        <v>-1.972180154610196</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.022267496501406</v>
+        <v>6.231963664758745</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.368785569239891</v>
+        <v>6.389599834565714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.341700363647494</v>
+        <v>3.767056298817609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.079360654110525</v>
+        <v>5.700399014383365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.015516618727418</v>
+        <v>3.821217012617013</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.180952781460483</v>
+        <v>5.172681230751435</v>
       </c>
     </row>
     <row r="19">
@@ -1010,13 +1010,13 @@
         <v>0.02290228263800859</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.0229682576620713</v>
+        <v>0.02296825766207116</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.0261139519350746</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.00578531118632209</v>
+        <v>0.005785311186322333</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006311620679546359</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02867143422246976</v>
+        <v>-0.02493639902880105</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.03325758610910511</v>
+        <v>-0.02815233509873665</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09140625525140531</v>
+        <v>-0.08670602532295661</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0501071128966732</v>
+        <v>-0.05372526396623674</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03321423303203935</v>
+        <v>-0.03840151128262555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02304492271046149</v>
+        <v>-0.02261702580673474</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07250253997580389</v>
+        <v>0.07520066143105748</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.07710355023261245</v>
+        <v>0.07722825519046034</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03738617511940954</v>
+        <v>0.04193140928903834</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05696565579017093</v>
+        <v>0.065268892032794</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04692617869641409</v>
+        <v>0.04425031391671089</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0608055649360412</v>
+        <v>0.06083651305407846</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-0.925652330480875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.367521204281353</v>
+        <v>2.367521204281331</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.5883461145014035</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.6090876054024585</v>
+        <v>-0.6090876054024474</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.384569028477441</v>
+        <v>-3.381235351710348</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.873207512371671</v>
+        <v>-6.779268934341154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.225023943487429</v>
+        <v>-4.191421042356735</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8084485946119916</v>
+        <v>-1.087835447141621</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.006944104582981</v>
+        <v>-3.081737033252141</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.14486214477104</v>
+        <v>-3.327066096788796</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.610567523618157</v>
+        <v>2.495442761936986</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5700145636980115</v>
+        <v>0.7964912874344245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.744196828677889</v>
+        <v>2.713848091979889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.65043759425607</v>
+        <v>5.561710304240706</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.607232469170065</v>
+        <v>1.666858098927132</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.938016942081368</v>
+        <v>1.628069781732257</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.01068176459484212</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.027320521263413</v>
+        <v>0.02732052126341274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.00687801369267124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.007120490450667289</v>
+        <v>-0.007120490450667159</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.039211809553846</v>
+        <v>-0.03911724035045609</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07924468316660573</v>
+        <v>-0.07926395124726036</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04757955009676555</v>
+        <v>-0.04781497965804549</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.008919096536243641</v>
+        <v>-0.01204260334328524</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03452648261460758</v>
+        <v>-0.03559535402445419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03656800881514924</v>
+        <v>-0.03817959076590419</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0314700330278379</v>
+        <v>0.03006294346713784</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.006758406882482886</v>
+        <v>0.009174055117216742</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03266311107703041</v>
+        <v>0.03201474672466519</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06743545092049343</v>
+        <v>0.06548350358470577</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01897116717038603</v>
+        <v>0.01973610287729375</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02281688667819491</v>
+        <v>0.01906057237778495</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>0.198360196319225</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-3.961534787860543</v>
+        <v>-3.961534787860554</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-2.767339125983248</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.888158683028591</v>
+        <v>-4.673448631424329</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.195803252581907</v>
+        <v>-9.589754640508932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.144331253541956</v>
+        <v>-6.350521098075346</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.825802198829714</v>
+        <v>-3.640565447962971</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.84423234380511</v>
+        <v>-4.764719311573594</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.98014136623704</v>
+        <v>-4.802731842737759</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.07779471287902</v>
+        <v>4.992816581261301</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.140993088520541</v>
+        <v>1.4861653128312</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3793173271631939</v>
+        <v>0.8523005202655695</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.959086933663435</v>
+        <v>2.126376642482457</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8419655761670497</v>
+        <v>0.9731230124218772</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7985734393368754</v>
+        <v>0.8317041227288376</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>0.002467069025104879</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.04927087161820349</v>
+        <v>-0.04927087161820363</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.03078874702417548</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0591290455898006</v>
+        <v>-0.05678140439806312</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.111976639775976</v>
+        <v>-0.1157544306596507</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06722702007360835</v>
+        <v>-0.06922936909280022</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0415979930985483</v>
+        <v>-0.04023048299194241</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05533053762137252</v>
+        <v>-0.05480784920932138</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05746529924750884</v>
+        <v>-0.0551351320866229</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06582912438578054</v>
+        <v>0.06449501035499475</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0143565582170262</v>
+        <v>0.01914071657716021</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.004278715253488385</v>
+        <v>0.009451545732023149</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02221058434353224</v>
+        <v>0.02397019737747165</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.009753727279080825</v>
+        <v>0.01112424501420117</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009405489883361413</v>
+        <v>0.009909734297732531</v>
       </c>
     </row>
     <row r="34">
@@ -1424,7 +1424,7 @@
         <v>3.37414194113842</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.808594289015079</v>
+        <v>-5.80859428901509</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6038966057922124</v>
+        <v>0.3159118346721941</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.01330737059661</v>
+        <v>-13.69512098527438</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.5587734645931829</v>
+        <v>-0.5452778052881648</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-9.127478226547561</v>
+        <v>-9.323209874419945</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.2383827893026147</v>
+        <v>-0.1173440775300953</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.11750622548282</v>
+        <v>-10.44560828769878</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.86271488094709</v>
+        <v>17.86300747618873</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.890497339430004</v>
+        <v>8.277974431011714</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.419071461377248</v>
+        <v>5.354383056949189</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.832003448151439</v>
+        <v>-1.449969391371604</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.304543359010011</v>
+        <v>6.402569057900771</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.379652100316169</v>
+        <v>-1.551441614041972</v>
       </c>
     </row>
     <row r="37">
@@ -1502,7 +1502,7 @@
         <v>0.04388396157068462</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.07554635608270599</v>
+        <v>-0.07554635608270613</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.01293047814246615</v>
+        <v>0.00791560967470209</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2997851115535327</v>
+        <v>-0.2931726337443511</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.006512236568202286</v>
+        <v>-0.006350933676812463</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1061252803997323</v>
+        <v>-0.1092392882686351</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.003003896365411405</v>
+        <v>-0.001484023537833592</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1299983644413882</v>
+        <v>-0.1328972320957681</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4413262911234787</v>
+        <v>0.4509296794664353</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.231214904394705</v>
+        <v>0.2045077073441835</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.06515136384379357</v>
+        <v>0.06463947377799723</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.0221971774972969</v>
+        <v>-0.01748321556099494</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08304770302791335</v>
+        <v>0.08526263766883733</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.0191661095669047</v>
+        <v>-0.01900075791809535</v>
       </c>
     </row>
     <row r="40">
@@ -1584,7 +1584,7 @@
         <v>-0.334572665451105</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.586823568047135</v>
+        <v>-1.586823568047102</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.172636071091196</v>
+        <v>-1.994010639997422</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.382168250891909</v>
+        <v>-4.405129724137889</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.867100014901646</v>
+        <v>-2.034862367475664</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.653804961849592</v>
+        <v>-2.56260179244893</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.556541777599082</v>
+        <v>-1.579435128801936</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.897782272886606</v>
+        <v>-2.97014399356992</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.510358355835113</v>
+        <v>1.802958952989097</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.0399870455689825</v>
+        <v>-0.3029036399323324</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.199206569005361</v>
+        <v>1.174081066041129</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.4684559722071214</v>
+        <v>0.6532655025882868</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.9318667719894052</v>
+        <v>0.8769880574100966</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.1583202467382142</v>
+        <v>-0.1765779607141633</v>
       </c>
     </row>
     <row r="43">
@@ -1662,7 +1662,7 @@
         <v>-0.003932719527176792</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.01865224710999388</v>
+        <v>-0.01865224710999348</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02621022151438514</v>
+        <v>-0.02402460584092458</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05293880975088301</v>
+        <v>-0.05331586348468529</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02106883622801205</v>
+        <v>-0.02300139589155168</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03001718656641744</v>
+        <v>-0.02889279170080302</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01825033379201148</v>
+        <v>-0.01838811433458669</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.03378375937231572</v>
+        <v>-0.03484747939599917</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01855250529752817</v>
+        <v>0.02226985155312561</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.00014995224519878</v>
+        <v>-0.003724716199568455</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.01378382026394331</v>
+        <v>0.01347075552670352</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.005366957097766598</v>
+        <v>0.007468976436182243</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01104461189122064</v>
+        <v>0.01038465587261023</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.001882014751918048</v>
+        <v>-0.002183758124954786</v>
       </c>
     </row>
     <row r="46">
